--- a/biology/Médecine/Recherche_en_oncologie/Recherche_en_oncologie.xlsx
+++ b/biology/Médecine/Recherche_en_oncologie/Recherche_en_oncologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La recherche en cancérologie, ou recherche en oncologie, est l'effort scientifique intense fait depuis quelques décennies pour identifier ou comprendre les causes et co-facteurs de développement du cancer (cancérogenèse). Elle comprend des actions de recherche fondamentale et des actions de recherche appliquée.
 En France, les acteurs de la recherche clinique académique en cancérologie sont notamment organisés en de multiples sociétés savantes et intergroupes coopérateurs.
@@ -512,7 +524,9 @@
           <t>Les champs de la recherche sur le cancer</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Elle porte sur 
 les prédispositions (génétiques, individuelles ou « familiales », avec par exemple le Cancer Genome Project) ;
@@ -557,7 +571,9 @@
           <t>Enjeux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Recherche médicale et en sciences humaines fait face à une maladie difficile, économiquement et socialement très coûteuse et douloureuse pour la société, maladie qui semble en forte augmentation dans les pays dits riches et développés
 Le nombre de cancer et certains types de cancer sont en forte augmentation sur la planète, le vieillissement de la population n'expliquant qu'une partie du problème, cette évolution statistique se fait d'une manière différentiée selon les âges, métiers, populations, régions et pays, ce qui laisse penser que des facteurs environnementaux sont souvent en cause. 
